--- a/Millikan oil drop data.xlsx
+++ b/Millikan oil drop data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Documents\PHYS-281-master\Millikan Oil Drop Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735A0715-A0A4-459B-AFA5-036EA4A1AFD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DBD9F3-331D-418B-BA26-A3DD492D82C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{B2274C18-6455-4DEB-9533-9C28EB4C78B0}"/>
   </bookViews>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC7C4A-75CA-4C60-AAF2-287BB0068A1D}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
         <v>0.14219999999999999</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D14" si="0">A3*10/1.626</f>
+        <f t="shared" ref="D3:D25" si="0">A3*10/1.626</f>
         <v>0.78167281672816724</v>
       </c>
     </row>
@@ -556,6 +556,138 @@
       <c r="D14">
         <f t="shared" si="0"/>
         <v>2.5862238622386222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8.8260000000000005E-2</v>
+      </c>
+      <c r="B15">
+        <v>8.1243999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.54280442804428053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.14076</v>
+      </c>
+      <c r="B16">
+        <v>0.12266000000000001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.86568265682656831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.38213000000000003</v>
+      </c>
+      <c r="B17">
+        <v>0.34022999999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>2.3501230012300125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.31022</v>
+      </c>
+      <c r="B18">
+        <v>0.28238999999999997</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1.9078720787207872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.23096</v>
+      </c>
+      <c r="B19">
+        <v>0.20501</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.4204182041820419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.12446</v>
+      </c>
+      <c r="B20">
+        <v>7.17E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.76543665436654362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.34866999999999998</v>
+      </c>
+      <c r="B21">
+        <v>0.30979000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.1443419434194344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.34916999999999998</v>
+      </c>
+      <c r="B22">
+        <v>0.31994</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.1474169741697415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.26865</v>
+      </c>
+      <c r="B23">
+        <v>0.28305000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.6522140221402215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.36110999999999999</v>
+      </c>
+      <c r="B24">
+        <v>0.32122000000000001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.2208487084870852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.19791</v>
+      </c>
+      <c r="B25">
+        <v>0.17280999999999999</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.217158671586716</v>
       </c>
     </row>
   </sheetData>

--- a/Millikan oil drop data.xlsx
+++ b/Millikan oil drop data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Documents\PHYS-281-master\Millikan Oil Drop Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DBD9F3-331D-418B-BA26-A3DD492D82C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EF99C3-C7B4-4975-858B-AA4745174176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{B2274C18-6455-4DEB-9533-9C28EB4C78B0}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,293 +404,296 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.2427</v>
+        <v>8.8260000000000005E-2</v>
       </c>
       <c r="B2">
-        <v>0.27548</v>
+        <v>8.1243999999999997E-2</v>
       </c>
       <c r="D2">
         <f>A2*10/1.626</f>
-        <v>1.4926199261992621</v>
+        <v>0.54280442804428053</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.12709999999999999</v>
+        <v>0.1104</v>
       </c>
       <c r="B3">
-        <v>0.14219999999999999</v>
+        <v>0.35085</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D25" si="0">A3*10/1.626</f>
-        <v>0.78167281672816724</v>
+        <v>0.67896678966789681</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.1338</v>
+        <v>0.12446</v>
       </c>
       <c r="B4">
-        <v>0.15537999999999999</v>
+        <v>7.17E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0.82287822878228789</v>
+        <v>0.76543665436654362</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.26819999999999999</v>
+        <v>0.12709999999999999</v>
       </c>
       <c r="B5">
-        <v>0.4052</v>
+        <v>0.14219999999999999</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.6494464944649447</v>
+        <v>0.78167281672816724</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.26929999999999998</v>
+        <v>0.1338</v>
       </c>
       <c r="B6">
-        <v>0.40610000000000002</v>
+        <v>0.15537999999999999</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.656211562115621</v>
+        <v>0.82287822878228789</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.17610000000000001</v>
+        <v>0.14076</v>
       </c>
       <c r="B7">
-        <v>0.55979999999999996</v>
+        <v>0.12266000000000001</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>1.0830258302583027</v>
+        <v>0.86568265682656831</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.1104</v>
+        <v>0.17610000000000001</v>
       </c>
       <c r="B8">
-        <v>0.35085</v>
+        <v>0.55979999999999996</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.67896678966789681</v>
+        <v>1.0830258302583027</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.22409999999999999</v>
+        <v>0.19791</v>
       </c>
       <c r="B9">
-        <v>0.71299999999999997</v>
+        <v>0.17280999999999999</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.378228782287823</v>
+        <v>1.217158671586716</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.64251999999999998</v>
+        <v>0.20199</v>
       </c>
       <c r="B10">
-        <v>2.0467</v>
+        <v>0.64290000000000003</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>3.9515375153751542</v>
+        <v>1.2422509225092251</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.72424999999999995</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="B11">
-        <v>2.3062</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>4.4541820418204185</v>
+        <v>1.378228782287823</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.34792000000000001</v>
+        <v>0.23096</v>
       </c>
       <c r="B12">
-        <v>1.1073</v>
+        <v>0.20501</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.1397293972939733</v>
+        <v>1.4204182041820419</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.20199</v>
+        <v>0.2427</v>
       </c>
       <c r="B13">
-        <v>0.64290000000000003</v>
+        <v>0.27548</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1.2422509225092251</v>
+        <v>1.4926199261992621</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.42052</v>
+        <v>0.26819999999999999</v>
       </c>
       <c r="B14">
-        <v>1.3389</v>
+        <v>0.4052</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>2.5862238622386222</v>
+        <v>1.6494464944649447</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8.8260000000000005E-2</v>
+        <v>0.26865</v>
       </c>
       <c r="B15">
-        <v>8.1243999999999997E-2</v>
+        <v>0.28305000000000002</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0.54280442804428053</v>
+        <v>1.6522140221402215</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.14076</v>
+        <v>0.26929999999999998</v>
       </c>
       <c r="B16">
-        <v>0.12266000000000001</v>
+        <v>0.40610000000000002</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0.86568265682656831</v>
+        <v>1.656211562115621</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.38213000000000003</v>
+        <v>0.31022</v>
       </c>
       <c r="B17">
-        <v>0.34022999999999998</v>
+        <v>0.28238999999999997</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>2.3501230012300125</v>
+        <v>1.9078720787207872</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.31022</v>
+        <v>0.34792000000000001</v>
       </c>
       <c r="B18">
-        <v>0.28238999999999997</v>
+        <v>1.1073</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>1.9078720787207872</v>
+        <v>2.1397293972939733</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.23096</v>
+        <v>0.34866999999999998</v>
       </c>
       <c r="B19">
-        <v>0.20501</v>
+        <v>0.30979000000000001</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>1.4204182041820419</v>
+        <v>2.1443419434194344</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.12446</v>
+        <v>0.34916999999999998</v>
       </c>
       <c r="B20">
-        <v>7.17E-2</v>
+        <v>0.31994</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.76543665436654362</v>
+        <v>2.1474169741697415</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.34866999999999998</v>
+        <v>0.36110999999999999</v>
       </c>
       <c r="B21">
-        <v>0.30979000000000001</v>
+        <v>0.32122000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>2.1443419434194344</v>
+        <v>2.2208487084870852</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.34916999999999998</v>
+        <v>0.38213000000000003</v>
       </c>
       <c r="B22">
-        <v>0.31994</v>
+        <v>0.34022999999999998</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>2.1474169741697415</v>
+        <v>2.3501230012300125</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.26865</v>
+        <v>0.42052</v>
       </c>
       <c r="B23">
-        <v>0.28305000000000002</v>
+        <v>1.3389</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>1.6522140221402215</v>
+        <v>2.5862238622386222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.36110999999999999</v>
+        <v>0.64251999999999998</v>
       </c>
       <c r="B24">
-        <v>0.32122000000000001</v>
+        <v>2.0467</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>2.2208487084870852</v>
+        <v>3.9515375153751542</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.19791</v>
+        <v>0.72424999999999995</v>
       </c>
       <c r="B25">
-        <v>0.17280999999999999</v>
+        <v>2.3062</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>1.217158671586716</v>
+        <v>4.4541820418204185</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
